--- a/statistics/performance_table_fbpinns_description.xlsx
+++ b/statistics/performance_table_fbpinns_description.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="66">
   <si>
     <t>x_0</t>
   </si>
@@ -240,6 +240,12 @@
   </si>
   <si>
     <t>1h 56m</t>
+  </si>
+  <si>
+    <t>3h 19m</t>
+  </si>
+  <si>
+    <t>3h 12m</t>
   </si>
 </sst>
 </file>
@@ -713,7 +719,7 @@
   <dimension ref="A1:Y38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U29" sqref="U29"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1548,7 +1554,7 @@
         <v>114</v>
       </c>
       <c r="N14" s="22">
-        <f t="shared" ref="N14:N15" si="4">H14*I14*M14</f>
+        <f t="shared" ref="N14" si="4">H14*I14*M14</f>
         <v>68400</v>
       </c>
       <c r="O14" s="12" t="s">
@@ -1691,13 +1697,27 @@
       <c r="P16" s="49">
         <v>5000000</v>
       </c>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="51"/>
-      <c r="S16" s="52"/>
-      <c r="T16" s="52"/>
-      <c r="U16" s="52"/>
-      <c r="V16" s="52"/>
-      <c r="W16" s="52"/>
+      <c r="Q16" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="R16" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="S16" s="52">
+        <v>1.58233709667704</v>
+      </c>
+      <c r="T16" s="52">
+        <v>1.33264932588068</v>
+      </c>
+      <c r="U16" s="52">
+        <v>1.9550359073158801</v>
+      </c>
+      <c r="V16" s="52">
+        <v>1.66707482368021</v>
+      </c>
+      <c r="W16" s="52">
+        <v>2.4929205673067199E-2</v>
+      </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
@@ -1738,13 +1758,27 @@
       <c r="P17" s="28">
         <v>5000000</v>
       </c>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
+      <c r="Q17" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="R17" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="S17" s="17">
+        <v>0.93281473711913099</v>
+      </c>
+      <c r="T17" s="17">
+        <v>0.78989363175385297</v>
+      </c>
+      <c r="U17" s="17">
+        <v>1.1221044367931201</v>
+      </c>
+      <c r="V17" s="17">
+        <v>0.97463483377551097</v>
+      </c>
+      <c r="W17" s="17">
+        <v>1.5192826835533401E-2</v>
+      </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
